--- a/flask/sites/sample.xlsx
+++ b/flask/sites/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helpdesk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA08ADE-1B04-4C5E-89ED-0D4F63EAA3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7BD1A-0A49-4A69-80D6-D5E1516452C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="150" windowWidth="18480" windowHeight="10200" tabRatio="793" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4305" windowWidth="25440" windowHeight="15390" tabRatio="793" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="174">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -594,22 +594,6 @@
   </si>
   <si>
     <t>ANS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入前確認申請</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -666,10 +650,6 @@
     <rPh sb="132" eb="134">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報機器等接続申請</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -745,10 +725,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソフトウェアインストール申請書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インストールアカウント有効依頼です。
 【ソフトウェア名】
 【対象端末台数】台
@@ -761,10 +737,6 @@
 【設定日】
 インストールアカウントを有効予定
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィルタリング設定変更申請書</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -786,10 +758,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォルダアクセス制限申請書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォルダアクセス制限の申請です。
 【フォルダパス】
 【目的】
@@ -805,9 +773,6 @@
 【対象アカウント】
 </t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID登録・変更等申請書</t>
   </si>
   <si>
     <t>【%ID%】Re:
@@ -892,10 +857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おおるり・GIGAユーザーアカウント登録・変更等申請書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【%ID%】Re:
 %SCL%　●●様
 おおるりネット（県立ネット）ヘルプデスク担当●●です。
@@ -965,10 +926,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nyushi・workアカウント対象機器変更申請書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nyushi, workアカウント対象機器変更の申請です。
 nyushiアカウント　【登録】台【削除】台
 workアカウント　　【登録】台【削除】台
@@ -985,10 +942,6 @@
 【登録】
 【削除】
 学校への連絡：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生徒用メールアカウント申請書</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1174,163 +1127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>901_情報機器等購入前確認申請書</t>
-    <rPh sb="16" eb="17">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>902_情報機器等接続・撤去申請書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>903_ソフトウェアインストール申請書</t>
-    <rPh sb="16" eb="18">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>904_フィルタリング設定変更申請書</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>905_フォルダアクセス制限申請書</t>
-    <rPh sb="12" eb="14">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>906_ユーザID登録・変更等申請書</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>907_おおるり・GIGAユーザーアカウント登録変更等申請書</t>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>911_nyushi・workアカウント対象機器変更申請書</t>
-    <rPh sb="20" eb="22">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>912_生徒用メールアカウント申請書</t>
-    <rPh sb="4" eb="7">
-      <t>セイトヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>913_情報機器校務・校内間移動申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>991_登録_パスワード初期化</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>992_登録_ウィルス検知</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>999_返信_汎用</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>231_おおるり分教室（自治医大/岡本特別支援学校）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1390,6 +1186,136 @@
   <si>
     <t>ITEMNAME</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報機器等購入前確認申請書</t>
+    <rPh sb="12" eb="13">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報機器等接続・撤去申請書</t>
+  </si>
+  <si>
+    <t>情報機器等接続・撤去申請書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアインストール申請書</t>
+    <rPh sb="12" eb="14">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルタリング設定変更申請書</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダアクセス制限申請書</t>
+    <rPh sb="8" eb="10">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID登録・変更等申請書</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおるり・GIGAユーザーアカウント登録変更等申請書</t>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nyushi・workアカウント対象機器変更申請書</t>
+    <rPh sb="16" eb="18">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒用メールアカウント申請書</t>
+    <rPh sb="0" eb="3">
+      <t>セイトヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報機器校務・校内間移動申請</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1717,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -10233,9 +10159,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -10270,16 +10196,16 @@
         <v>901</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="356.25">
@@ -10287,16 +10213,16 @@
         <v>902</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="131.25">
@@ -10304,13 +10230,13 @@
         <v>903</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="150">
@@ -10318,13 +10244,13 @@
         <v>904</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="150">
@@ -10332,13 +10258,13 @@
         <v>905</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5">
@@ -10346,16 +10272,16 @@
         <v>906</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5">
@@ -10363,16 +10289,16 @@
         <v>907</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="206.25">
@@ -10380,13 +10306,13 @@
         <v>911</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="206.25">
@@ -10394,14 +10320,14 @@
         <v>912</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="318.75">
@@ -10409,16 +10335,16 @@
         <v>913</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="112.5">
@@ -10426,14 +10352,14 @@
         <v>991</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="300">
@@ -10441,16 +10367,16 @@
         <v>992</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="281.25">
@@ -10458,16 +10384,16 @@
         <v>999</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -10480,124 +10406,183 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B8CAC4-8014-4D14-8218-E865F999F036}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>901</v>
       </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="str">
+        <f>$A2&amp;"_"&amp;$C2</f>
+        <v>901_情報機器等購入前確認申請書</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>902</v>
       </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B14" si="0">$A3&amp;"_"&amp;$C3</f>
+        <v>902_情報機器等接続・撤去申請書</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>903</v>
       </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>903_ソフトウェアインストール申請書</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>904</v>
       </c>
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>904_フィルタリング設定変更申請書</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>905</v>
       </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>905_フォルダアクセス制限申請書</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>906</v>
       </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>906_ユーザID登録・変更等申請書</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>907</v>
       </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>907_おおるり・GIGAユーザーアカウント登録変更等申請書</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>911</v>
       </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>911_nyushi・workアカウント対象機器変更申請書</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>912</v>
       </c>
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>912_生徒用メールアカウント申請書</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>913</v>
       </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>913_情報機器校務・校内間移動申請</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>991</v>
       </c>
-      <c r="B12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>991_登録_パスワード初期化</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>992</v>
       </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>992_登録_ウィルス検知</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>999</v>
       </c>
-      <c r="B14" t="s">
-        <v>173</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>999_返信_汎用</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -10612,21 +10597,25 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11546,7 +11535,7 @@
         <v>231</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>106</v>
@@ -11557,7 +11546,7 @@
         <v>232</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>107</v>
@@ -11680,34 +11669,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
